--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1091.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1091.xlsx
@@ -354,7 +354,7 @@
         <v>2.380884920101725</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.743232014011802</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1091.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1091.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199562294363721</v>
+        <v>1.178327441215515</v>
       </c>
       <c r="B1">
-        <v>2.380884920101725</v>
+        <v>2.418038368225098</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.743232014011802</v>
+        <v>2.331649780273438</v>
       </c>
       <c r="E1">
-        <v>1.151514881049225</v>
+        <v>1.197895765304565</v>
       </c>
     </row>
   </sheetData>
